--- a/main/asciidoc/ProjectPlan.xlsx
+++ b/main/asciidoc/ProjectPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\uni\6thsemester\Management_von_informatik_projekten\GeoContentAnalyser\main\asciidoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xxkil\uni\6th\management_für_informationsprojekte\GeoContentAnalyser\main\asciidoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D06A27E-A636-4E90-A080-9A75676FAFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88DB813-85AD-4555-9756-90A566C79FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89AF5027-AB3D-4A54-B838-FAF1AAF8CDAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{89AF5027-AB3D-4A54-B838-FAF1AAF8CDAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>Technology transfer project plan template</t>
   </si>
   <si>
     <t xml:space="preserve">Project name: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project leader: </t>
   </si>
   <si>
     <t xml:space="preserve">Project begin: </t>
@@ -742,15 +739,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B04E3C-AD66-4863-B2AC-D677FDBBF0AB}">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="19" width="2.5703125" customWidth="1"/>
     <col min="20" max="20" width="66.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -765,63 +762,82 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="9">
+        <v>45027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
-        <v>45027</v>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -843,15 +859,14 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -863,63 +878,64 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
+      <c r="T8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
-      <c r="T9" t="s">
-        <v>14</v>
+      <c r="T9" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -932,19 +948,21 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -965,14 +983,12 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -987,17 +1003,19 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
+      <c r="T13" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1007,44 +1025,44 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="8"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="8"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
-        <v>24</v>
+      <c r="B16" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1052,25 +1070,25 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="8"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" t="s">
-        <v>26</v>
+      <c r="B17" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1090,14 +1108,12 @@
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1112,16 +1128,16 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="8"/>
+      <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
-      <c r="T18" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1143,14 +1159,14 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1163,18 +1179,20 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
+      <c r="T20" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -1188,19 +1206,19 @@
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1214,19 +1232,19 @@
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1240,17 +1258,15 @@
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -1265,14 +1281,16 @@
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
-      <c r="T24" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -1289,20 +1307,19 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
+      <c r="T25" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="B26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -1315,18 +1332,17 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
-      <c r="T26" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="T26" s="7"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="F27" s="8"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -1340,24 +1356,26 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
+      <c r="T27" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -1365,94 +1383,94 @@
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="11"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="8"/>
+      <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-      <c r="T31" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -1465,19 +1483,19 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
+      <c r="T32" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="B33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -1492,50 +1510,48 @@
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="I35" s="7"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
@@ -1543,38 +1559,38 @@
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="11"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
+      <c r="H36" s="7"/>
       <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="8"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
       <c r="N36" s="8"/>
-      <c r="O36" s="7"/>
+      <c r="O36" s="8"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -1586,20 +1602,22 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
-      <c r="T37" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="B38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -1616,20 +1634,20 @@
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
+      <c r="T38" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="B39" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -1643,20 +1661,19 @@
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="H40" s="8"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -1669,25 +1686,26 @@
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -1708,11 +1726,11 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="I42" s="7"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
+      <c r="K42" s="7"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
+      <c r="M42" s="7"/>
       <c r="N42" s="8"/>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
@@ -1720,40 +1738,36 @@
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="8"/>
+      <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="8"/>
+      <c r="J43" s="7"/>
       <c r="K43" s="7"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="7"/>
+      <c r="L43" s="7"/>
       <c r="N43" s="8"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
+      <c r="O43" s="8"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -1764,19 +1778,22 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
-      <c r="T44" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="T44" s="7"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+      <c r="B45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -1786,35 +1803,36 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
+      <c r="T45" s="7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
-      <c r="B46" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>76</v>
-      </c>
+      <c r="B46" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="8"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
@@ -1825,7 +1843,7 @@
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1840,43 +1858,17 @@
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="8"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
       <c r="T47" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>82</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.25">
@@ -1899,6 +1891,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>